--- a/Интеграция с Directum/SNG_IntegrDirectum/Трудовой договор/Для интеграции с дирекумом.xlsx
+++ b/Интеграция с Directum/SNG_IntegrDirectum/Трудовой договор/Для интеграции с дирекумом.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palguev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Galaktika\_git\sng\Интеграция с Directum\SNG_IntegrDirectum\Трудовой договор\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB3ABF6-7E2D-476F-8F8E-66B7A86E2852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B38A7-4FB3-416B-AA8D-62D00FD965A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB07FBD3-6FB7-4FDA-984A-583C3B4CD470}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{CB07FBD3-6FB7-4FDA-984A-583C3B4CD470}"/>
   </bookViews>
   <sheets>
     <sheet name="Приказ на прием" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="669">
   <si>
     <r>
       <rPr>
@@ -3674,34 +3671,6 @@
   </si>
   <si>
     <t>Наименование вида договора</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">п.1.2 в шаблоне ТД
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>На неопределен. срок
-ВременДляВыполнРабот
-ВременНаДекретОтпуск
-ВременНаПрактику
-ВременНаДлитОтсутств
-ВременНаСезоннРаботы
-СрочнДоговоРуководит
-Срочный Договор
-ДоговорГраждПравХар
-СрочнДоговорГлавБух
-Срочно студ.отряд
-Без договора</t>
-    </r>
   </si>
   <si>
     <t>«SROK_D»</t>
@@ -6261,6 +6230,47 @@
       </rPr>
       <t>, то вывести "за каждый день нахождения в пути от места нахождения работодателя (пункта сбора) до места выполнения работы и обратно, предусмотренные графиком работы на вахте, а также за дни задержки в пути по метеорологическим условиям или вине транспортных организаций дневную ставку (часть оклада за день работы (дневную ставку) исходя из 8 часов,  установленную на последний рабочий день, предшествующий дню (дням) нахождения работника в пути."</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">п.1.2 в шаблоне ТД
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>На неопределен. срок
+ВременДляВыполнРабот
+ВременНаДекретОтпуск
+ВременНаПрактику
+ВременНаДлитОтсутств
+ВременНаСезоннРаботы
+СрочнДоговоРуководит
+Срочный Договор
+ДоговорГраждПравХар
+СрочнДоговорГлавБух
+Срочно студ.отряд
+Без договора</t>
+    </r>
+  </si>
+  <si>
+    <t>заполнил днями….</t>
+  </si>
+  <si>
+    <t>сделал такую связку, но на БД ALT2 она пустая select tarstav.nrec, catalogs.code, catalogs.name from tarstav, catalogs
+where ((tarstav.tarzone == catalogs.nrec))</t>
+  </si>
+  <si>
+    <t>непонятно, что такое skkPrikRPD1 да и если было понятно, то что выводить то?</t>
+  </si>
+  <si>
+    <t>явно ошибка - написано одно и тодже в условиях в пунктах 40 41 42</t>
   </si>
 </sst>
 </file>
@@ -6504,7 +6514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6580,6 +6590,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6854,7 +6882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6874,12 +6902,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6890,15 +6912,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6977,69 +6990,6 @@
     <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7049,15 +6999,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7106,18 +7047,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7127,36 +7056,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7169,12 +7074,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7184,9 +7083,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7194,16 +7090,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7261,24 +7148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7387,6 +7256,315 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7417,182 +7595,65 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7915,15 +7976,15 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.81640625" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7931,7 +7992,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7945,7 +8006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -7959,7 +8020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -7973,13 +8034,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -7993,7 +8054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -8007,13 +8068,13 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -8027,7 +8088,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -8037,13 +8098,13 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -8057,41 +8118,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="195" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="194"/>
+      <c r="D14" s="195"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="C15" s="194"/>
+      <c r="D15" s="195"/>
+    </row>
+    <row r="16" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -8105,7 +8166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -8119,8 +8180,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -8133,43 +8194,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -8177,15 +8238,15 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
@@ -8193,13 +8254,13 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -8213,48 +8274,48 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="198" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="C31" s="197"/>
+      <c r="D31" s="198"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -8265,14 +8326,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="5"/>
@@ -8283,8 +8344,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="5"/>
@@ -8308,1751 +8369,1766 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708F0FFC-FA37-4D58-A474-FAEA5BB9FE4B}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.109375" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="32.6328125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="244" t="s">
+      <c r="C1" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="245" t="s">
+      <c r="D1" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="244" t="s">
+      <c r="E1" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="244" t="s">
+      <c r="F1" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="255" t="s">
+      <c r="G1" s="184" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="236">
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="165">
         <v>1</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="271" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="162" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="263" t="s">
+      <c r="D2" s="192" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="232"/>
-      <c r="F2" s="225" t="s">
+      <c r="E2" s="162"/>
+      <c r="F2" s="157" t="s">
         <v>405</v>
       </c>
-      <c r="G2" s="258"/>
-    </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="236">
+      <c r="G2" s="187"/>
+    </row>
+    <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="165">
         <v>2</v>
       </c>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="271" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="232" t="s">
+      <c r="C3" s="162" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="263" t="s">
+      <c r="D3" s="192" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="232"/>
-      <c r="F3" s="225" t="s">
+      <c r="E3" s="162"/>
+      <c r="F3" s="270" t="s">
         <v>409</v>
       </c>
-      <c r="G3" s="258"/>
-    </row>
-    <row r="4" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A4" s="236">
+      <c r="G3" s="187"/>
+    </row>
+    <row r="4" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="165">
         <v>3</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="271" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="232" t="s">
+      <c r="C4" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="263" t="s">
+      <c r="D4" s="192" t="s">
         <v>410</v>
       </c>
-      <c r="E4" s="232"/>
-      <c r="F4" s="225" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="157" t="s">
         <v>411</v>
       </c>
-      <c r="G4" s="258"/>
-    </row>
-    <row r="5" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="236">
+      <c r="G4" s="187"/>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="165">
         <v>5</v>
       </c>
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="271" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="232" t="s">
+      <c r="C5" s="162" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="263" t="s">
+      <c r="D5" s="192" t="s">
         <v>414</v>
       </c>
-      <c r="E5" s="232"/>
-      <c r="F5" s="225" t="s">
+      <c r="E5" s="162"/>
+      <c r="F5" s="270" t="s">
         <v>415</v>
       </c>
-      <c r="G5" s="232" t="s">
+      <c r="G5" s="162" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="236">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="165">
         <v>6</v>
       </c>
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="271" t="s">
         <v>417</v>
       </c>
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="162" t="s">
         <v>418</v>
       </c>
-      <c r="D6" s="263"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="222" t="s">
+      <c r="D6" s="192"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="154" t="s">
         <v>419</v>
       </c>
-      <c r="G6" s="258"/>
-    </row>
-    <row r="7" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="226">
+      <c r="G6" s="187"/>
+    </row>
+    <row r="7" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="158">
         <v>7</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="271" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="223" t="s">
+      <c r="D7" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="223" t="s">
+      <c r="E7" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="225" t="s">
+      <c r="F7" s="270" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="257"/>
-    </row>
-    <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="226">
+      <c r="G7" s="186"/>
+    </row>
+    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="158">
         <v>8</v>
       </c>
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="271" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="223" t="s">
+      <c r="D8" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="223" t="s">
+      <c r="E8" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="225" t="s">
+      <c r="F8" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="257"/>
-    </row>
-    <row r="9" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="236">
+      <c r="G8" s="186"/>
+    </row>
+    <row r="9" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="165">
         <v>9</v>
       </c>
-      <c r="B9" s="231" t="s">
+      <c r="B9" s="271" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="232" t="s">
+      <c r="C9" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="D9" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="232" t="s">
+      <c r="E9" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="225" t="s">
+      <c r="F9" s="270" t="s">
         <v>420</v>
       </c>
-      <c r="G9" s="258"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="237">
+      <c r="G9" s="187"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="166">
         <v>10</v>
       </c>
-      <c r="B10" s="238" t="s">
+      <c r="B10" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="239" t="s">
+      <c r="C10" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="239" t="s">
+      <c r="D10" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="239" t="s">
+      <c r="E10" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="225"/>
-      <c r="G10" s="257" t="s">
+      <c r="F10" s="157"/>
+      <c r="G10" s="186" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="267" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="205" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
-      <c r="G11" s="256"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="246" t="s">
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="185"/>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="246" t="s">
+      <c r="B12" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="247" t="s">
+      <c r="C12" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="248" t="s">
+      <c r="D12" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="247" t="s">
+      <c r="E12" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="244" t="s">
+      <c r="F12" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="256"/>
-    </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="253">
+      <c r="G12" s="185"/>
+    </row>
+    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="182">
         <v>9</v>
       </c>
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="271" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="223" t="s">
+      <c r="C13" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="219" t="s">
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="151" t="s">
         <v>422</v>
       </c>
-      <c r="G13" s="256"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="253">
+      <c r="G13" s="185"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="182">
         <v>10</v>
       </c>
-      <c r="B14" s="227" t="s">
+      <c r="B14" s="271" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="223" t="s">
+      <c r="C14" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="223" t="s">
+      <c r="D14" s="155" t="s">
         <v>423</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="212" t="s">
         <v>424</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="199" t="s">
         <v>425</v>
       </c>
-      <c r="G14" s="256"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="253">
+      <c r="G14" s="185"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="182">
         <v>11</v>
       </c>
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="271" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="223" t="s">
+      <c r="C15" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="223" t="s">
+      <c r="D15" s="155" t="s">
         <v>426</v>
       </c>
-      <c r="E15" s="272"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="256"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="253">
+      <c r="E15" s="214"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="185"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="182">
         <v>12</v>
       </c>
-      <c r="B16" s="227" t="s">
+      <c r="B16" s="271" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="223" t="s">
+      <c r="C16" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="223" t="s">
+      <c r="D16" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="256"/>
-    </row>
-    <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="253">
+      <c r="E16" s="213"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="185"/>
+    </row>
+    <row r="17" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A17" s="182">
         <v>13</v>
       </c>
-      <c r="B17" s="227" t="s">
+      <c r="B17" s="271" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="223" t="s">
+      <c r="C17" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="223" t="s">
+      <c r="D17" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="223" t="s">
+      <c r="E17" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="225" t="s">
+      <c r="F17" s="157" t="s">
         <v>428</v>
       </c>
-      <c r="G17" s="256"/>
-    </row>
-    <row r="18" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="253">
+      <c r="G17" s="185"/>
+    </row>
+    <row r="18" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A18" s="182">
         <v>14</v>
       </c>
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="271" t="s">
         <v>429</v>
       </c>
-      <c r="C18" s="223" t="s">
+      <c r="C18" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="223" t="s">
+      <c r="D18" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="223" t="s">
+      <c r="E18" s="155" t="s">
         <v>430</v>
       </c>
-      <c r="F18" s="225" t="s">
+      <c r="F18" s="157" t="s">
         <v>431</v>
       </c>
-      <c r="G18" s="256"/>
-    </row>
-    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="253">
+      <c r="G18" s="185"/>
+    </row>
+    <row r="19" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="182">
         <v>15</v>
       </c>
-      <c r="B19" s="227" t="s">
+      <c r="B19" s="271" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="223" t="s">
+      <c r="D19" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="223" t="s">
+      <c r="E19" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="219" t="s">
+      <c r="F19" s="151" t="s">
         <v>432</v>
       </c>
-      <c r="G19" s="256"/>
-    </row>
-    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="253">
+      <c r="G19" s="185"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="182">
         <v>16</v>
       </c>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="271" t="s">
         <v>433</v>
       </c>
-      <c r="C20" s="223" t="s">
+      <c r="C20" s="155" t="s">
         <v>434</v>
       </c>
-      <c r="D20" s="223" t="s">
+      <c r="D20" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="223" t="s">
+      <c r="E20" s="155" t="s">
         <v>435</v>
       </c>
-      <c r="F20" s="220" t="s">
+      <c r="F20" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="G20" s="257"/>
-    </row>
-    <row r="21" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="253">
+      <c r="G20" s="186"/>
+    </row>
+    <row r="21" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="182">
         <v>17</v>
       </c>
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="271" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="223" t="s">
+      <c r="C21" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="223" t="s">
+      <c r="D21" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="223" t="s">
+      <c r="E21" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="219" t="s">
+      <c r="F21" s="151" t="s">
         <v>437</v>
       </c>
-      <c r="G21" s="256"/>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="253">
+      <c r="G21" s="185"/>
+    </row>
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="182">
         <v>18</v>
       </c>
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="271" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="223" t="s">
+      <c r="C22" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="223" t="s">
+      <c r="D22" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="223" t="s">
+      <c r="E22" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="240" t="s">
+      <c r="F22" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="256"/>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="253">
+      <c r="G22" s="185"/>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="182">
         <v>19</v>
       </c>
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="271" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="223" t="s">
+      <c r="C23" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="230">
+      <c r="D23" s="161">
         <v>111111</v>
       </c>
-      <c r="E23" s="223" t="s">
+      <c r="E23" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="240" t="s">
+      <c r="F23" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="256"/>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="253">
+      <c r="G23" s="185"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="182">
         <v>20</v>
       </c>
-      <c r="B24" s="227" t="s">
+      <c r="B24" s="271" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="223" t="s">
+      <c r="C24" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="241">
+      <c r="D24" s="170">
         <v>39814</v>
       </c>
-      <c r="E24" s="223" t="s">
+      <c r="E24" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="242" t="s">
+      <c r="F24" s="171" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="256"/>
-    </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="253">
+      <c r="G24" s="185"/>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="182">
         <v>21</v>
       </c>
-      <c r="B25" s="227" t="s">
+      <c r="B25" s="271" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="223" t="s">
+      <c r="C25" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="223" t="s">
+      <c r="D25" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="223" t="s">
+      <c r="E25" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="225" t="s">
+      <c r="F25" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="256"/>
-    </row>
-    <row r="26" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="253">
+      <c r="G25" s="185"/>
+    </row>
+    <row r="26" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A26" s="182">
         <v>22</v>
       </c>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="271" t="s">
         <v>438</v>
       </c>
-      <c r="C26" s="223" t="s">
+      <c r="C26" s="155" t="s">
         <v>439</v>
       </c>
-      <c r="D26" s="228" t="s">
+      <c r="D26" s="159" t="s">
         <v>440</v>
       </c>
-      <c r="E26" s="223" t="s">
+      <c r="E26" s="155" t="s">
         <v>441</v>
       </c>
-      <c r="F26" s="225" t="s">
+      <c r="F26" s="270" t="s">
         <v>442</v>
       </c>
-      <c r="G26" s="256"/>
-    </row>
-    <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="253">
+      <c r="G26" s="185"/>
+    </row>
+    <row r="27" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A27" s="182">
         <v>23</v>
       </c>
-      <c r="B27" s="227" t="s">
+      <c r="B27" s="271" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="223" t="s">
+      <c r="C27" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="223" t="s">
+      <c r="D27" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="223" t="s">
+      <c r="E27" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="225" t="s">
+      <c r="F27" s="157" t="s">
         <v>443</v>
       </c>
-      <c r="G27" s="256"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="267" t="s">
+      <c r="G27" s="185"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="205" t="s">
         <v>444</v>
       </c>
-      <c r="B28" s="267"/>
-      <c r="C28" s="267"/>
-      <c r="D28" s="267"/>
-      <c r="E28" s="267"/>
-      <c r="F28" s="267"/>
-      <c r="G28" s="256"/>
-    </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="243" t="s">
+      <c r="B28" s="205"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="185"/>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="243" t="s">
+      <c r="B29" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="244" t="s">
+      <c r="C29" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="245" t="s">
+      <c r="D29" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="244" t="s">
+      <c r="E29" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="244" t="s">
+      <c r="F29" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="256"/>
-    </row>
-    <row r="30" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="226">
+      <c r="G29" s="185"/>
+    </row>
+    <row r="30" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A30" s="158">
         <v>24</v>
       </c>
-      <c r="B30" s="227" t="s">
+      <c r="B30" s="271" t="s">
         <v>445</v>
       </c>
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="155" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="228" t="s">
+      <c r="D30" s="159" t="s">
         <v>447</v>
       </c>
-      <c r="E30" s="223" t="s">
+      <c r="E30" s="155" t="s">
         <v>448</v>
       </c>
-      <c r="F30" s="225" t="s">
+      <c r="F30" s="270" t="s">
         <v>449</v>
       </c>
-      <c r="G30" s="256"/>
-    </row>
-    <row r="31" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="226">
+      <c r="G30" s="185"/>
+    </row>
+    <row r="31" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A31" s="158">
         <v>25</v>
       </c>
-      <c r="B31" s="227" t="s">
+      <c r="B31" s="271" t="s">
         <v>450</v>
       </c>
-      <c r="C31" s="223" t="s">
+      <c r="C31" s="155" t="s">
         <v>451</v>
       </c>
-      <c r="D31" s="228" t="s">
+      <c r="D31" s="159" t="s">
         <v>452</v>
       </c>
-      <c r="E31" s="223" t="s">
+      <c r="E31" s="155" t="s">
         <v>453</v>
       </c>
-      <c r="F31" s="225" t="s">
+      <c r="F31" s="270" t="s">
         <v>454</v>
       </c>
-      <c r="G31" s="257"/>
-    </row>
-    <row r="32" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="226">
+      <c r="G31" s="186"/>
+    </row>
+    <row r="32" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="158">
         <v>26</v>
       </c>
-      <c r="B32" s="227" t="s">
+      <c r="B32" s="272" t="s">
         <v>455</v>
       </c>
-      <c r="C32" s="223" t="s">
+      <c r="C32" s="155" t="s">
         <v>456</v>
       </c>
-      <c r="D32" s="229" t="s">
+      <c r="D32" s="160" t="s">
+        <v>664</v>
+      </c>
+      <c r="E32" s="161" t="s">
         <v>457</v>
       </c>
-      <c r="E32" s="230" t="s">
+      <c r="F32" s="270" t="s">
         <v>458</v>
       </c>
-      <c r="F32" s="225" t="s">
+      <c r="G32" s="185"/>
+    </row>
+    <row r="33" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="158">
+        <v>27</v>
+      </c>
+      <c r="B33" s="271" t="s">
         <v>459</v>
       </c>
-      <c r="G32" s="256"/>
-    </row>
-    <row r="33" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="226">
-        <v>27</v>
-      </c>
-      <c r="B33" s="227" t="s">
+      <c r="C33" s="155" t="s">
         <v>460</v>
       </c>
-      <c r="C33" s="223" t="s">
+      <c r="D33" s="170">
+        <v>43449</v>
+      </c>
+      <c r="E33" s="155" t="s">
         <v>461</v>
       </c>
-      <c r="D33" s="241">
-        <v>43449</v>
-      </c>
-      <c r="E33" s="223" t="s">
+      <c r="F33" s="178" t="s">
+        <v>458</v>
+      </c>
+      <c r="G33" s="185"/>
+    </row>
+    <row r="34" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+      <c r="A34" s="158">
+        <v>28</v>
+      </c>
+      <c r="B34" s="271" t="s">
         <v>462</v>
       </c>
-      <c r="F33" s="249" t="s">
-        <v>459</v>
-      </c>
-      <c r="G33" s="256"/>
-    </row>
-    <row r="34" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="226">
-        <v>28</v>
-      </c>
-      <c r="B34" s="227" t="s">
+      <c r="C34" s="155" t="s">
         <v>463</v>
       </c>
-      <c r="C34" s="223" t="s">
+      <c r="D34" s="170">
+        <v>45291</v>
+      </c>
+      <c r="E34" s="155" t="s">
         <v>464</v>
       </c>
-      <c r="D34" s="241">
-        <v>45291</v>
-      </c>
-      <c r="E34" s="223" t="s">
+      <c r="F34" s="178" t="s">
+        <v>458</v>
+      </c>
+      <c r="G34" s="185"/>
+    </row>
+    <row r="35" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A35" s="158">
+        <v>29</v>
+      </c>
+      <c r="B35" s="273" t="s">
         <v>465</v>
       </c>
-      <c r="F34" s="249" t="s">
-        <v>459</v>
-      </c>
-      <c r="G34" s="256"/>
-    </row>
-    <row r="35" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="226">
-        <v>29</v>
-      </c>
-      <c r="B35" s="231" t="s">
+      <c r="C35" s="162" t="s">
         <v>466</v>
       </c>
-      <c r="C35" s="232" t="s">
+      <c r="D35" s="179">
+        <v>3</v>
+      </c>
+      <c r="E35" s="155" t="s">
         <v>467</v>
       </c>
-      <c r="D35" s="250">
-        <v>3</v>
-      </c>
-      <c r="E35" s="223" t="s">
+      <c r="F35" s="157" t="s">
         <v>468</v>
       </c>
-      <c r="F35" s="225" t="s">
+      <c r="H35" s="283" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="158">
+        <v>30</v>
+      </c>
+      <c r="B36" s="271" t="s">
         <v>469</v>
       </c>
-      <c r="G35" s="256"/>
-    </row>
-    <row r="36" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="226">
-        <v>30</v>
-      </c>
-      <c r="B36" s="227" t="s">
+      <c r="C36" s="155" t="s">
         <v>470</v>
       </c>
-      <c r="C36" s="223" t="s">
+      <c r="D36" s="155" t="s">
         <v>471</v>
       </c>
-      <c r="D36" s="223" t="s">
+      <c r="E36" s="155" t="s">
         <v>472</v>
       </c>
-      <c r="E36" s="223" t="s">
+      <c r="F36" s="270" t="s">
         <v>473</v>
       </c>
-      <c r="F36" s="225" t="s">
+      <c r="G36" s="185"/>
+    </row>
+    <row r="37" spans="1:8" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="158">
+        <v>31</v>
+      </c>
+      <c r="B37" s="271" t="s">
         <v>474</v>
       </c>
-      <c r="G36" s="256"/>
-    </row>
-    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="226">
-        <v>31</v>
-      </c>
-      <c r="B37" s="227" t="s">
+      <c r="C37" s="155" t="s">
         <v>475</v>
       </c>
-      <c r="C37" s="223" t="s">
+      <c r="D37" s="155" t="s">
         <v>476</v>
       </c>
-      <c r="D37" s="223" t="s">
+      <c r="E37" s="155" t="s">
         <v>477</v>
       </c>
-      <c r="E37" s="223" t="s">
+      <c r="F37" s="270" t="s">
         <v>478</v>
       </c>
-      <c r="F37" s="225" t="s">
+      <c r="G37" s="162"/>
+    </row>
+    <row r="38" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A38" s="158">
+        <v>32</v>
+      </c>
+      <c r="B38" s="271" t="s">
         <v>479</v>
       </c>
-      <c r="G37" s="232"/>
-    </row>
-    <row r="38" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="226">
-        <v>32</v>
-      </c>
-      <c r="B38" s="227" t="s">
+      <c r="C38" s="155" t="s">
         <v>480</v>
       </c>
-      <c r="C38" s="223" t="s">
+      <c r="D38" s="155" t="s">
         <v>481</v>
       </c>
-      <c r="D38" s="223" t="s">
+      <c r="E38" s="155" t="s">
         <v>482</v>
       </c>
-      <c r="E38" s="223" t="s">
+      <c r="F38" s="157" t="s">
         <v>483</v>
       </c>
-      <c r="F38" s="225" t="s">
+      <c r="G38" s="162"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="205" t="s">
         <v>484</v>
       </c>
-      <c r="G38" s="232"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="267" t="s">
+      <c r="B39" s="205"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="185"/>
+    </row>
+    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="173" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="174" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="173" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="185"/>
+    </row>
+    <row r="41" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="158">
+        <v>33</v>
+      </c>
+      <c r="B41" s="271" t="s">
         <v>485</v>
       </c>
-      <c r="B39" s="267"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="256"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="243" t="s">
+      <c r="C41" s="155" t="s">
+        <v>486</v>
+      </c>
+      <c r="D41" s="155" t="s">
+        <v>487</v>
+      </c>
+      <c r="E41" s="155" t="s">
+        <v>488</v>
+      </c>
+      <c r="F41" s="152" t="s">
+        <v>489</v>
+      </c>
+      <c r="G41" s="193"/>
+    </row>
+    <row r="42" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A42" s="158">
+        <v>34</v>
+      </c>
+      <c r="B42" s="271" t="s">
+        <v>490</v>
+      </c>
+      <c r="C42" s="155" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42" s="155" t="s">
+        <v>492</v>
+      </c>
+      <c r="E42" s="155" t="s">
+        <v>493</v>
+      </c>
+      <c r="F42" s="152" t="s">
+        <v>494</v>
+      </c>
+      <c r="G42" s="193"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="202" t="s">
+        <v>495</v>
+      </c>
+      <c r="B43" s="203"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="185"/>
+    </row>
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="243" t="s">
+      <c r="B44" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="244" t="s">
+      <c r="C44" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="245" t="s">
+      <c r="D44" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="244" t="s">
+      <c r="E44" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="244" t="s">
+      <c r="F44" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="256"/>
-    </row>
-    <row r="41" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="226">
-        <v>33</v>
-      </c>
-      <c r="B41" s="227" t="s">
-        <v>486</v>
-      </c>
-      <c r="C41" s="223" t="s">
-        <v>487</v>
-      </c>
-      <c r="D41" s="223" t="s">
-        <v>488</v>
-      </c>
-      <c r="E41" s="223" t="s">
-        <v>489</v>
-      </c>
-      <c r="F41" s="220" t="s">
-        <v>490</v>
-      </c>
-      <c r="G41" s="264"/>
-    </row>
-    <row r="42" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="226">
-        <v>34</v>
-      </c>
-      <c r="B42" s="227" t="s">
-        <v>491</v>
-      </c>
-      <c r="C42" s="223" t="s">
-        <v>492</v>
-      </c>
-      <c r="D42" s="223" t="s">
-        <v>493</v>
-      </c>
-      <c r="E42" s="223" t="s">
-        <v>494</v>
-      </c>
-      <c r="F42" s="220" t="s">
-        <v>495</v>
-      </c>
-      <c r="G42" s="264"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="218" t="s">
+      <c r="G44" s="185"/>
+    </row>
+    <row r="45" spans="1:8" ht="112" x14ac:dyDescent="0.35">
+      <c r="A45" s="158">
+        <v>35</v>
+      </c>
+      <c r="B45" s="272" t="s">
         <v>496</v>
       </c>
-      <c r="B43" s="265"/>
-      <c r="C43" s="265"/>
-      <c r="D43" s="265"/>
-      <c r="E43" s="265"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="256"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="243" t="s">
+      <c r="C45" s="155" t="s">
+        <v>497</v>
+      </c>
+      <c r="D45" s="155" t="s">
+        <v>498</v>
+      </c>
+      <c r="E45" s="155" t="s">
+        <v>499</v>
+      </c>
+      <c r="F45" s="152" t="s">
+        <v>500</v>
+      </c>
+      <c r="G45" s="189" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+      <c r="A46" s="158">
+        <v>36</v>
+      </c>
+      <c r="B46" s="272" t="s">
+        <v>502</v>
+      </c>
+      <c r="C46" s="155" t="s">
+        <v>503</v>
+      </c>
+      <c r="D46" s="155" t="s">
+        <v>498</v>
+      </c>
+      <c r="E46" s="155" t="s">
+        <v>504</v>
+      </c>
+      <c r="F46" s="152" t="s">
+        <v>505</v>
+      </c>
+      <c r="G46" s="189" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A47" s="158">
+        <v>37</v>
+      </c>
+      <c r="B47" s="271" t="s">
+        <v>506</v>
+      </c>
+      <c r="C47" s="155" t="s">
+        <v>507</v>
+      </c>
+      <c r="D47" s="155" t="s">
+        <v>508</v>
+      </c>
+      <c r="E47" s="155" t="s">
+        <v>509</v>
+      </c>
+      <c r="F47" s="153" t="s">
+        <v>510</v>
+      </c>
+      <c r="G47" s="189" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A48" s="158">
+        <v>38</v>
+      </c>
+      <c r="B48" s="271" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" s="155" t="s">
+        <v>512</v>
+      </c>
+      <c r="D48" s="155" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" s="155" t="s">
+        <v>514</v>
+      </c>
+      <c r="F48" s="152" t="s">
+        <v>515</v>
+      </c>
+      <c r="G48" s="189" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A49" s="158">
+        <v>39</v>
+      </c>
+      <c r="B49" s="271" t="s">
+        <v>516</v>
+      </c>
+      <c r="C49" s="155" t="s">
+        <v>517</v>
+      </c>
+      <c r="D49" s="155" t="s">
+        <v>518</v>
+      </c>
+      <c r="E49" s="155" t="s">
+        <v>519</v>
+      </c>
+      <c r="F49" s="151" t="s">
+        <v>520</v>
+      </c>
+      <c r="G49" s="188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A50" s="158">
+        <v>40</v>
+      </c>
+      <c r="B50" s="273" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" s="155" t="s">
+        <v>523</v>
+      </c>
+      <c r="D50" s="155" t="s">
+        <v>524</v>
+      </c>
+      <c r="E50" s="155" t="s">
+        <v>525</v>
+      </c>
+      <c r="F50" s="151" t="s">
+        <v>526</v>
+      </c>
+      <c r="G50" s="188" t="s">
+        <v>521</v>
+      </c>
+      <c r="H50" s="274" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+      <c r="A51" s="158">
+        <v>41</v>
+      </c>
+      <c r="B51" s="273" t="s">
+        <v>527</v>
+      </c>
+      <c r="C51" s="155" t="s">
+        <v>528</v>
+      </c>
+      <c r="D51" s="155" t="s">
+        <v>529</v>
+      </c>
+      <c r="E51" s="155" t="s">
+        <v>530</v>
+      </c>
+      <c r="F51" s="151" t="s">
+        <v>531</v>
+      </c>
+      <c r="G51" s="188" t="s">
+        <v>521</v>
+      </c>
+      <c r="H51" s="274" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A52" s="158">
+        <v>42</v>
+      </c>
+      <c r="B52" s="273" t="s">
+        <v>532</v>
+      </c>
+      <c r="C52" s="155" t="s">
+        <v>533</v>
+      </c>
+      <c r="D52" s="156" t="s">
+        <v>534</v>
+      </c>
+      <c r="E52" s="155" t="s">
+        <v>535</v>
+      </c>
+      <c r="F52" s="151" t="s">
+        <v>536</v>
+      </c>
+      <c r="G52" s="188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="202" t="s">
+        <v>537</v>
+      </c>
+      <c r="B53" s="203"/>
+      <c r="C53" s="203"/>
+      <c r="D53" s="203"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="185"/>
+    </row>
+    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="243" t="s">
+      <c r="B54" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="244" t="s">
+      <c r="C54" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="245" t="s">
+      <c r="D54" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="244" t="s">
+      <c r="E54" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="244" t="s">
+      <c r="F54" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="256"/>
-    </row>
-    <row r="45" spans="1:7" ht="135.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="226">
-        <v>35</v>
-      </c>
-      <c r="B45" s="227" t="s">
-        <v>497</v>
-      </c>
-      <c r="C45" s="223" t="s">
-        <v>498</v>
-      </c>
-      <c r="D45" s="223" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" s="223" t="s">
-        <v>500</v>
-      </c>
-      <c r="F45" s="220" t="s">
-        <v>501</v>
-      </c>
-      <c r="G45" s="260" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="121.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="226">
-        <v>36</v>
-      </c>
-      <c r="B46" s="227" t="s">
-        <v>503</v>
-      </c>
-      <c r="C46" s="223" t="s">
-        <v>504</v>
-      </c>
-      <c r="D46" s="223" t="s">
-        <v>499</v>
-      </c>
-      <c r="E46" s="223" t="s">
-        <v>505</v>
-      </c>
-      <c r="F46" s="220" t="s">
-        <v>506</v>
-      </c>
-      <c r="G46" s="260" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="49.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="226">
-        <v>37</v>
-      </c>
-      <c r="B47" s="227" t="s">
-        <v>507</v>
-      </c>
-      <c r="C47" s="223" t="s">
-        <v>508</v>
-      </c>
-      <c r="D47" s="223" t="s">
-        <v>509</v>
-      </c>
-      <c r="E47" s="223" t="s">
-        <v>510</v>
-      </c>
-      <c r="F47" s="221" t="s">
-        <v>511</v>
-      </c>
-      <c r="G47" s="260" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="49.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="226">
-        <v>38</v>
-      </c>
-      <c r="B48" s="227" t="s">
-        <v>512</v>
-      </c>
-      <c r="C48" s="223" t="s">
-        <v>513</v>
-      </c>
-      <c r="D48" s="223" t="s">
-        <v>514</v>
-      </c>
-      <c r="E48" s="223" t="s">
-        <v>515</v>
-      </c>
-      <c r="F48" s="220" t="s">
-        <v>516</v>
-      </c>
-      <c r="G48" s="260" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="226">
-        <v>39</v>
-      </c>
-      <c r="B49" s="227" t="s">
-        <v>517</v>
-      </c>
-      <c r="C49" s="223" t="s">
-        <v>518</v>
-      </c>
-      <c r="D49" s="223" t="s">
-        <v>519</v>
-      </c>
-      <c r="E49" s="223" t="s">
-        <v>520</v>
-      </c>
-      <c r="F49" s="219" t="s">
+      <c r="G54" s="185"/>
+    </row>
+    <row r="55" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="183">
+        <v>43</v>
+      </c>
+      <c r="B55" s="271" t="s">
+        <v>538</v>
+      </c>
+      <c r="C55" s="155" t="s">
+        <v>539</v>
+      </c>
+      <c r="D55" s="159" t="s">
+        <v>540</v>
+      </c>
+      <c r="E55" s="155" t="s">
+        <v>541</v>
+      </c>
+      <c r="F55" s="154" t="s">
+        <v>542</v>
+      </c>
+      <c r="G55" s="185"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="208">
+        <v>44</v>
+      </c>
+      <c r="B56" s="275" t="s">
+        <v>543</v>
+      </c>
+      <c r="C56" s="212" t="s">
+        <v>544</v>
+      </c>
+      <c r="D56" s="206" t="s">
+        <v>545</v>
+      </c>
+      <c r="E56" s="212" t="s">
+        <v>546</v>
+      </c>
+      <c r="F56" s="215" t="s">
+        <v>547</v>
+      </c>
+      <c r="G56" s="185"/>
+    </row>
+    <row r="57" spans="1:8" ht="340" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="209"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="213"/>
+      <c r="D57" s="207"/>
+      <c r="E57" s="213"/>
+      <c r="F57" s="216"/>
+      <c r="G57" s="185"/>
+    </row>
+    <row r="58" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A58" s="183">
+        <v>45</v>
+      </c>
+      <c r="B58" s="277" t="s">
+        <v>548</v>
+      </c>
+      <c r="C58" s="161" t="s">
+        <v>549</v>
+      </c>
+      <c r="D58" s="181" t="s">
+        <v>550</v>
+      </c>
+      <c r="E58" s="155" t="s">
+        <v>551</v>
+      </c>
+      <c r="F58" s="180" t="s">
+        <v>552</v>
+      </c>
+      <c r="G58" s="185"/>
+    </row>
+    <row r="59" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A59" s="183">
+        <v>46</v>
+      </c>
+      <c r="B59" s="277" t="s">
+        <v>553</v>
+      </c>
+      <c r="C59" s="161" t="s">
+        <v>554</v>
+      </c>
+      <c r="D59" s="163" t="s">
+        <v>555</v>
+      </c>
+      <c r="E59" s="155" t="s">
+        <v>556</v>
+      </c>
+      <c r="F59" s="180" t="s">
+        <v>557</v>
+      </c>
+      <c r="G59" s="188" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="202" t="s">
+        <v>559</v>
+      </c>
+      <c r="B60" s="203"/>
+      <c r="C60" s="203"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="203"/>
+      <c r="F60" s="204"/>
+      <c r="G60" s="185"/>
+    </row>
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="173" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="174" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="173" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="185"/>
+    </row>
+    <row r="62" spans="1:8" ht="144.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="183">
+        <v>47</v>
+      </c>
+      <c r="B62" s="278" t="s">
+        <v>560</v>
+      </c>
+      <c r="C62" s="161" t="s">
+        <v>561</v>
+      </c>
+      <c r="D62" s="163" t="s">
+        <v>562</v>
+      </c>
+      <c r="E62" s="155" t="s">
+        <v>563</v>
+      </c>
+      <c r="F62" s="191" t="s">
+        <v>564</v>
+      </c>
+      <c r="G62" s="188" t="s">
         <v>521</v>
       </c>
-      <c r="G49" s="259" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="226">
-        <v>40</v>
-      </c>
-      <c r="B50" s="227" t="s">
-        <v>523</v>
-      </c>
-      <c r="C50" s="223" t="s">
-        <v>524</v>
-      </c>
-      <c r="D50" s="223" t="s">
-        <v>525</v>
-      </c>
-      <c r="E50" s="223" t="s">
-        <v>526</v>
-      </c>
-      <c r="F50" s="219" t="s">
-        <v>527</v>
-      </c>
-      <c r="G50" s="259" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="226">
-        <v>41</v>
-      </c>
-      <c r="B51" s="227" t="s">
-        <v>528</v>
-      </c>
-      <c r="C51" s="223" t="s">
-        <v>529</v>
-      </c>
-      <c r="D51" s="223" t="s">
-        <v>530</v>
-      </c>
-      <c r="E51" s="223" t="s">
-        <v>531</v>
-      </c>
-      <c r="F51" s="219" t="s">
-        <v>532</v>
-      </c>
-      <c r="G51" s="259" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="226">
-        <v>42</v>
-      </c>
-      <c r="B52" s="227" t="s">
-        <v>533</v>
-      </c>
-      <c r="C52" s="223" t="s">
-        <v>534</v>
-      </c>
-      <c r="D52" s="224" t="s">
-        <v>535</v>
-      </c>
-      <c r="E52" s="223" t="s">
-        <v>536</v>
-      </c>
-      <c r="F52" s="219" t="s">
-        <v>537</v>
-      </c>
-      <c r="G52" s="259" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="218" t="s">
-        <v>538</v>
-      </c>
-      <c r="B53" s="265"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="265"/>
-      <c r="E53" s="265"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="256"/>
-    </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="243" t="s">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="202" t="s">
+        <v>565</v>
+      </c>
+      <c r="B63" s="203"/>
+      <c r="C63" s="203"/>
+      <c r="D63" s="203"/>
+      <c r="E63" s="203"/>
+      <c r="F63" s="204"/>
+      <c r="G63" s="185"/>
+    </row>
+    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="243" t="s">
+      <c r="B64" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="244" t="s">
+      <c r="C64" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="245" t="s">
+      <c r="D64" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="244" t="s">
+      <c r="E64" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="244" t="s">
+      <c r="F64" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="256"/>
-    </row>
-    <row r="55" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="254">
-        <v>43</v>
-      </c>
-      <c r="B55" s="227" t="s">
-        <v>539</v>
-      </c>
-      <c r="C55" s="223" t="s">
-        <v>540</v>
-      </c>
-      <c r="D55" s="228" t="s">
-        <v>541</v>
-      </c>
-      <c r="E55" s="223" t="s">
-        <v>542</v>
-      </c>
-      <c r="F55" s="222" t="s">
-        <v>543</v>
-      </c>
-      <c r="G55" s="256"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="270">
-        <v>44</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>544</v>
-      </c>
-      <c r="C56" s="64" t="s">
-        <v>545</v>
-      </c>
-      <c r="D56" s="268" t="s">
-        <v>546</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>548</v>
-      </c>
-      <c r="G56" s="256"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="271"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="269"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="256"/>
-    </row>
-    <row r="58" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="254">
-        <v>45</v>
-      </c>
-      <c r="B58" s="233" t="s">
-        <v>549</v>
-      </c>
-      <c r="C58" s="230" t="s">
-        <v>550</v>
-      </c>
-      <c r="D58" s="252" t="s">
-        <v>551</v>
-      </c>
-      <c r="E58" s="223" t="s">
-        <v>552</v>
-      </c>
-      <c r="F58" s="251" t="s">
-        <v>553</v>
-      </c>
-      <c r="G58" s="256"/>
-    </row>
-    <row r="59" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="254">
-        <v>46</v>
-      </c>
-      <c r="B59" s="233" t="s">
-        <v>554</v>
-      </c>
-      <c r="C59" s="230" t="s">
-        <v>555</v>
-      </c>
-      <c r="D59" s="234" t="s">
-        <v>556</v>
-      </c>
-      <c r="E59" s="223" t="s">
-        <v>557</v>
-      </c>
-      <c r="F59" s="251" t="s">
-        <v>558</v>
-      </c>
-      <c r="G59" s="259" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="218" t="s">
-        <v>560</v>
-      </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="265"/>
-      <c r="D60" s="265"/>
-      <c r="E60" s="265"/>
-      <c r="F60" s="266"/>
-      <c r="G60" s="256"/>
-    </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="243" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="243" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="244" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="245" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="244" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="244" t="s">
-        <v>103</v>
-      </c>
-      <c r="G61" s="256"/>
-    </row>
-    <row r="62" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A62" s="254">
-        <v>47</v>
-      </c>
-      <c r="B62" s="233" t="s">
-        <v>561</v>
-      </c>
-      <c r="C62" s="230" t="s">
-        <v>562</v>
-      </c>
-      <c r="D62" s="234" t="s">
-        <v>563</v>
-      </c>
-      <c r="E62" s="223" t="s">
-        <v>564</v>
-      </c>
-      <c r="F62" s="262" t="s">
-        <v>565</v>
-      </c>
-      <c r="G62" s="259" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="218" t="s">
+      <c r="G64" s="185"/>
+    </row>
+    <row r="65" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="158">
+        <v>48</v>
+      </c>
+      <c r="B65" s="271" t="s">
         <v>566</v>
       </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="265"/>
-      <c r="D63" s="265"/>
-      <c r="E63" s="265"/>
-      <c r="F63" s="266"/>
-      <c r="G63" s="256"/>
-    </row>
-    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="243" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="243" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="244" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="245" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="244" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="244" t="s">
-        <v>103</v>
-      </c>
-      <c r="G64" s="256"/>
-    </row>
-    <row r="65" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="226">
-        <v>48</v>
-      </c>
-      <c r="B65" s="227" t="s">
+      <c r="C65" s="155" t="s">
         <v>567</v>
       </c>
-      <c r="C65" s="223" t="s">
+      <c r="D65" s="160" t="s">
         <v>568</v>
       </c>
-      <c r="D65" s="229" t="s">
+      <c r="E65" s="155" t="s">
         <v>569</v>
       </c>
-      <c r="E65" s="223" t="s">
+      <c r="F65" s="154" t="s">
         <v>570</v>
       </c>
-      <c r="F65" s="222" t="s">
+      <c r="G65" s="185"/>
+    </row>
+    <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="158">
+        <v>49</v>
+      </c>
+      <c r="B66" s="279" t="s">
         <v>571</v>
       </c>
-      <c r="G65" s="256"/>
-    </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="226">
-        <v>49</v>
-      </c>
-      <c r="B66" s="223" t="s">
+      <c r="C66" s="155" t="s">
         <v>572</v>
       </c>
-      <c r="C66" s="223" t="s">
+      <c r="D66" s="164" t="s">
         <v>573</v>
       </c>
-      <c r="D66" s="235" t="s">
+      <c r="E66" s="155" t="s">
         <v>574</v>
       </c>
-      <c r="E66" s="223" t="s">
+      <c r="F66" s="152"/>
+      <c r="G66" s="185"/>
+    </row>
+    <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="158">
+        <v>50</v>
+      </c>
+      <c r="B67" s="279" t="s">
         <v>575</v>
       </c>
-      <c r="F66" s="220"/>
-      <c r="G66" s="256"/>
-    </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="226">
-        <v>50</v>
-      </c>
-      <c r="B67" s="223" t="s">
+      <c r="C67" s="155" t="s">
         <v>576</v>
       </c>
-      <c r="C67" s="223" t="s">
+      <c r="D67" s="164" t="s">
         <v>577</v>
       </c>
-      <c r="D67" s="235" t="s">
+      <c r="E67" s="155" t="s">
         <v>578</v>
       </c>
-      <c r="E67" s="223" t="s">
+      <c r="F67" s="152"/>
+      <c r="G67" s="185"/>
+    </row>
+    <row r="68" spans="1:7" ht="100" x14ac:dyDescent="0.35">
+      <c r="A68" s="158">
+        <v>51</v>
+      </c>
+      <c r="B68" s="280" t="s">
         <v>579</v>
       </c>
-      <c r="F67" s="220"/>
-      <c r="G67" s="256"/>
-    </row>
-    <row r="68" spans="1:7" ht="133.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="226">
-        <v>51</v>
-      </c>
-      <c r="B68" s="223" t="s">
+      <c r="C68" s="155" t="s">
         <v>580</v>
       </c>
-      <c r="C68" s="223" t="s">
+      <c r="D68" s="160" t="s">
+        <v>568</v>
+      </c>
+      <c r="E68" s="155" t="s">
         <v>581</v>
       </c>
-      <c r="D68" s="229" t="s">
-        <v>569</v>
-      </c>
-      <c r="E68" s="223" t="s">
+      <c r="F68" s="157" t="s">
         <v>582</v>
       </c>
-      <c r="F68" s="225" t="s">
+      <c r="G68" s="185"/>
+    </row>
+    <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="158">
+        <v>52</v>
+      </c>
+      <c r="B69" s="279" t="s">
         <v>583</v>
       </c>
-      <c r="G68" s="256"/>
-    </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="226">
-        <v>52</v>
-      </c>
-      <c r="B69" s="223" t="s">
+      <c r="C69" s="155" t="s">
         <v>584</v>
       </c>
-      <c r="C69" s="223" t="s">
+      <c r="D69" s="164" t="s">
         <v>585</v>
       </c>
-      <c r="D69" s="235" t="s">
+      <c r="E69" s="155" t="s">
         <v>586</v>
       </c>
-      <c r="E69" s="223" t="s">
+      <c r="F69" s="152"/>
+      <c r="G69" s="185"/>
+    </row>
+    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="158">
+        <v>53</v>
+      </c>
+      <c r="B70" s="279" t="s">
         <v>587</v>
       </c>
-      <c r="F69" s="220"/>
-      <c r="G69" s="256"/>
-    </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="226">
-        <v>53</v>
-      </c>
-      <c r="B70" s="223" t="s">
+      <c r="C70" s="155" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="223" t="s">
+      <c r="D70" s="164" t="s">
         <v>589</v>
       </c>
-      <c r="D70" s="235" t="s">
+      <c r="E70" s="155" t="s">
         <v>590</v>
       </c>
-      <c r="E70" s="223" t="s">
+      <c r="F70" s="152"/>
+      <c r="G70" s="185"/>
+    </row>
+    <row r="71" spans="1:7" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="158">
+        <v>54</v>
+      </c>
+      <c r="B71" s="272" t="s">
         <v>591</v>
       </c>
-      <c r="F70" s="220"/>
-      <c r="G70" s="256"/>
-    </row>
-    <row r="71" spans="1:7" ht="149.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="226">
-        <v>54</v>
-      </c>
-      <c r="B71" s="227" t="s">
+      <c r="C71" s="155" t="s">
         <v>592</v>
       </c>
-      <c r="C71" s="223" t="s">
+      <c r="D71" s="160" t="s">
+        <v>568</v>
+      </c>
+      <c r="E71" s="155" t="s">
         <v>593</v>
       </c>
-      <c r="D71" s="229" t="s">
-        <v>569</v>
-      </c>
-      <c r="E71" s="223" t="s">
+      <c r="F71" s="157" t="s">
         <v>594</v>
       </c>
-      <c r="F71" s="225" t="s">
+      <c r="G71" s="184"/>
+    </row>
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="158">
+        <v>55</v>
+      </c>
+      <c r="B72" s="279" t="s">
         <v>595</v>
       </c>
-      <c r="G71" s="255"/>
-    </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="226">
-        <v>55</v>
-      </c>
-      <c r="B72" s="223" t="s">
+      <c r="C72" s="155" t="s">
+        <v>584</v>
+      </c>
+      <c r="D72" s="155" t="s">
         <v>596</v>
       </c>
-      <c r="C72" s="223" t="s">
-        <v>585</v>
-      </c>
-      <c r="D72" s="223" t="s">
+      <c r="E72" s="155" t="s">
         <v>597</v>
       </c>
-      <c r="E72" s="223" t="s">
+      <c r="F72" s="152"/>
+      <c r="G72" s="185"/>
+    </row>
+    <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="158">
+        <v>56</v>
+      </c>
+      <c r="B73" s="271" t="s">
         <v>598</v>
       </c>
-      <c r="F72" s="220"/>
-      <c r="G72" s="256"/>
-    </row>
-    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="226">
-        <v>56</v>
-      </c>
-      <c r="B73" s="227" t="s">
+      <c r="C73" s="155" t="s">
+        <v>588</v>
+      </c>
+      <c r="D73" s="155" t="s">
         <v>599</v>
       </c>
-      <c r="C73" s="223" t="s">
-        <v>589</v>
-      </c>
-      <c r="D73" s="223" t="s">
+      <c r="E73" s="155" t="s">
         <v>600</v>
       </c>
-      <c r="E73" s="223" t="s">
+      <c r="F73" s="152"/>
+      <c r="G73" s="185"/>
+    </row>
+    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="158">
+        <v>57</v>
+      </c>
+      <c r="B74" s="271" t="s">
         <v>601</v>
       </c>
-      <c r="F73" s="220"/>
-      <c r="G73" s="256"/>
-    </row>
-    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="226">
-        <v>57</v>
-      </c>
-      <c r="B74" s="227" t="s">
+      <c r="C74" s="155" t="s">
         <v>602</v>
       </c>
-      <c r="C74" s="223" t="s">
+      <c r="D74" s="155" t="s">
         <v>603</v>
       </c>
-      <c r="D74" s="223" t="s">
+      <c r="E74" s="155" t="s">
         <v>604</v>
       </c>
-      <c r="E74" s="223" t="s">
+      <c r="F74" s="152"/>
+      <c r="G74" s="185"/>
+    </row>
+    <row r="75" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="158">
+        <v>58</v>
+      </c>
+      <c r="B75" s="271" t="s">
         <v>605</v>
       </c>
-      <c r="F74" s="220"/>
-      <c r="G74" s="256"/>
-    </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="226">
-        <v>58</v>
-      </c>
-      <c r="B75" s="227" t="s">
+      <c r="C75" s="155" t="s">
         <v>606</v>
       </c>
-      <c r="C75" s="223" t="s">
+      <c r="D75" s="155" t="s">
         <v>607</v>
       </c>
-      <c r="D75" s="223" t="s">
+      <c r="E75" s="155" t="s">
         <v>608</v>
       </c>
-      <c r="E75" s="223" t="s">
+      <c r="F75" s="152"/>
+      <c r="G75" s="185"/>
+    </row>
+    <row r="76" spans="1:7" ht="104" x14ac:dyDescent="0.35">
+      <c r="A76" s="158">
+        <v>59</v>
+      </c>
+      <c r="B76" s="271" t="s">
         <v>609</v>
       </c>
-      <c r="F75" s="220"/>
-      <c r="G75" s="256"/>
-    </row>
-    <row r="76" spans="1:7" ht="137.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="226">
-        <v>59</v>
-      </c>
-      <c r="B76" s="227" t="s">
+      <c r="C76" s="155" t="s">
         <v>610</v>
       </c>
-      <c r="C76" s="223" t="s">
+      <c r="D76" s="160" t="s">
+        <v>568</v>
+      </c>
+      <c r="E76" s="155" t="s">
         <v>611</v>
       </c>
-      <c r="D76" s="229" t="s">
-        <v>569</v>
-      </c>
-      <c r="E76" s="223" t="s">
+      <c r="F76" s="154" t="s">
         <v>612</v>
       </c>
-      <c r="F76" s="222" t="s">
+      <c r="G76" s="185"/>
+    </row>
+    <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="158">
+        <v>60</v>
+      </c>
+      <c r="B77" s="271" t="s">
         <v>613</v>
       </c>
-      <c r="G76" s="256"/>
-    </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="226">
-        <v>60</v>
-      </c>
-      <c r="B77" s="227" t="s">
+      <c r="C77" s="155" t="s">
         <v>614</v>
       </c>
-      <c r="C77" s="223" t="s">
+      <c r="D77" s="159" t="s">
         <v>615</v>
       </c>
-      <c r="D77" s="228" t="s">
+      <c r="E77" s="155" t="s">
         <v>616</v>
       </c>
-      <c r="E77" s="223" t="s">
+      <c r="F77" s="152"/>
+      <c r="G77" s="185"/>
+    </row>
+    <row r="78" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="158">
+        <v>61</v>
+      </c>
+      <c r="B78" s="271" t="s">
         <v>617</v>
       </c>
-      <c r="F77" s="220"/>
-      <c r="G77" s="256"/>
-    </row>
-    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="226">
-        <v>61</v>
-      </c>
-      <c r="B78" s="227" t="s">
+      <c r="C78" s="155" t="s">
         <v>618</v>
       </c>
-      <c r="C78" s="223" t="s">
+      <c r="D78" s="159" t="s">
         <v>619</v>
       </c>
-      <c r="D78" s="228" t="s">
+      <c r="E78" s="155" t="s">
         <v>620</v>
       </c>
-      <c r="E78" s="223" t="s">
+      <c r="F78" s="152"/>
+      <c r="G78" s="185"/>
+    </row>
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.35">
+      <c r="A79" s="158">
+        <v>63</v>
+      </c>
+      <c r="B79" s="272" t="s">
         <v>621</v>
       </c>
-      <c r="F78" s="220"/>
-      <c r="G78" s="256"/>
-    </row>
-    <row r="79" spans="1:7" ht="108.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="226">
-        <v>63</v>
-      </c>
-      <c r="B79" s="227" t="s">
+      <c r="C79" s="155" t="s">
         <v>622</v>
       </c>
-      <c r="C79" s="223" t="s">
+      <c r="D79" s="160" t="s">
+        <v>568</v>
+      </c>
+      <c r="E79" s="155" t="s">
         <v>623</v>
       </c>
-      <c r="D79" s="229" t="s">
-        <v>569</v>
-      </c>
-      <c r="E79" s="223" t="s">
+      <c r="F79" s="157" t="s">
         <v>624</v>
       </c>
-      <c r="F79" s="225" t="s">
+      <c r="G79" s="185"/>
+    </row>
+    <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="158">
+        <v>64</v>
+      </c>
+      <c r="B80" s="271" t="s">
         <v>625</v>
       </c>
-      <c r="G79" s="256"/>
-    </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="226">
-        <v>64</v>
-      </c>
-      <c r="B80" s="227" t="s">
+      <c r="C80" s="155" t="s">
         <v>626</v>
       </c>
-      <c r="C80" s="223" t="s">
+      <c r="D80" s="159" t="s">
         <v>627</v>
       </c>
-      <c r="D80" s="228" t="s">
+      <c r="E80" s="155" t="s">
         <v>628</v>
       </c>
-      <c r="E80" s="223" t="s">
+      <c r="F80" s="152"/>
+      <c r="G80" s="185"/>
+    </row>
+    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="158">
+        <v>65</v>
+      </c>
+      <c r="B81" s="271" t="s">
         <v>629</v>
       </c>
-      <c r="F80" s="220"/>
-      <c r="G80" s="256"/>
-    </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="226">
-        <v>65</v>
-      </c>
-      <c r="B81" s="227" t="s">
+      <c r="C81" s="155" t="s">
         <v>630</v>
       </c>
-      <c r="C81" s="223" t="s">
+      <c r="D81" s="159" t="s">
         <v>631</v>
       </c>
-      <c r="D81" s="228" t="s">
+      <c r="E81" s="155" t="s">
         <v>632</v>
       </c>
-      <c r="E81" s="223" t="s">
+      <c r="F81" s="152"/>
+      <c r="G81" s="185"/>
+    </row>
+    <row r="82" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="158">
+        <v>66</v>
+      </c>
+      <c r="B82" s="272" t="s">
         <v>633</v>
       </c>
-      <c r="F81" s="220"/>
-      <c r="G81" s="256"/>
-    </row>
-    <row r="82" spans="1:7" ht="216" x14ac:dyDescent="0.3">
-      <c r="A82" s="226">
-        <v>66</v>
-      </c>
-      <c r="B82" s="227" t="s">
+      <c r="C82" s="155" t="s">
         <v>634</v>
       </c>
-      <c r="C82" s="223" t="s">
+      <c r="D82" s="159" t="s">
         <v>635</v>
       </c>
-      <c r="D82" s="228" t="s">
+      <c r="E82" s="155" t="s">
         <v>636</v>
       </c>
-      <c r="E82" s="223" t="s">
+      <c r="F82" s="270" t="s">
         <v>637</v>
       </c>
-      <c r="F82" s="225" t="s">
+      <c r="G82" s="188" t="s">
         <v>638</v>
       </c>
-      <c r="G82" s="259" t="s">
+      <c r="H82" s="281" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+      <c r="A83" s="158">
+        <v>67</v>
+      </c>
+      <c r="B83" s="272" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="226">
-        <v>67</v>
-      </c>
-      <c r="B83" s="227" t="s">
+      <c r="C83" s="155" t="s">
         <v>640</v>
       </c>
-      <c r="C83" s="223" t="s">
+      <c r="D83" s="159"/>
+      <c r="E83" s="155" t="s">
         <v>641</v>
       </c>
-      <c r="D83" s="228"/>
-      <c r="E83" s="223" t="s">
+      <c r="F83" s="154" t="s">
         <v>642</v>
       </c>
-      <c r="F83" s="222" t="s">
+      <c r="G83" s="190" t="s">
         <v>643</v>
       </c>
-      <c r="G83" s="261" t="s">
+      <c r="H83" s="281" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A84" s="158">
+        <v>68</v>
+      </c>
+      <c r="B84" s="271" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="226">
-        <v>68</v>
-      </c>
-      <c r="B84" s="227" t="s">
+      <c r="C84" s="155" t="s">
         <v>645</v>
       </c>
-      <c r="C84" s="223" t="s">
+      <c r="D84" s="282" t="s">
         <v>646</v>
       </c>
-      <c r="D84" s="228" t="s">
+      <c r="E84" s="155" t="s">
         <v>647</v>
       </c>
-      <c r="E84" s="223" t="s">
+      <c r="F84" s="151" t="s">
         <v>648</v>
       </c>
-      <c r="F84" s="219" t="s">
+      <c r="G84" s="188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="158">
+        <v>69</v>
+      </c>
+      <c r="B85" s="271" t="s">
         <v>649</v>
       </c>
-      <c r="G84" s="259" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="226">
-        <v>69</v>
-      </c>
-      <c r="B85" s="227" t="s">
+      <c r="C85" s="155" t="s">
         <v>650</v>
       </c>
-      <c r="C85" s="223" t="s">
+      <c r="D85" s="159" t="s">
         <v>651</v>
       </c>
-      <c r="D85" s="228" t="s">
+      <c r="E85" s="155" t="s">
         <v>652</v>
       </c>
-      <c r="E85" s="223" t="s">
+      <c r="F85" s="151" t="s">
+        <v>648</v>
+      </c>
+      <c r="G85" s="188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A86" s="158">
+        <v>70</v>
+      </c>
+      <c r="B86" s="272" t="s">
         <v>653</v>
       </c>
-      <c r="F85" s="219" t="s">
-        <v>649</v>
-      </c>
-      <c r="G85" s="259" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="226">
-        <v>70</v>
-      </c>
-      <c r="B86" s="227" t="s">
+      <c r="C86" s="155" t="s">
         <v>654</v>
       </c>
-      <c r="C86" s="223" t="s">
+      <c r="D86" s="160" t="s">
         <v>655</v>
       </c>
-      <c r="D86" s="229" t="s">
+      <c r="E86" s="155" t="s">
         <v>656</v>
       </c>
-      <c r="E86" s="223" t="s">
+      <c r="F86" s="154" t="s">
         <v>657</v>
       </c>
-      <c r="F86" s="222" t="s">
+      <c r="G86" s="188" t="s">
         <v>658</v>
       </c>
-      <c r="G86" s="259" t="s">
+    </row>
+    <row r="87" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A87" s="158">
+        <v>71</v>
+      </c>
+      <c r="B87" s="271" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="226">
-        <v>71</v>
-      </c>
-      <c r="B87" s="227" t="s">
+      <c r="C87" s="155" t="s">
         <v>660</v>
       </c>
-      <c r="C87" s="223" t="s">
+      <c r="D87" s="159" t="s">
         <v>661</v>
       </c>
-      <c r="D87" s="228" t="s">
+      <c r="E87" s="155" t="s">
         <v>662</v>
       </c>
-      <c r="E87" s="223" t="s">
+      <c r="F87" s="157" t="s">
         <v>663</v>
       </c>
-      <c r="F87" s="225" t="s">
-        <v>664</v>
-      </c>
-      <c r="G87" s="256"/>
+      <c r="G87" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10084,809 +10160,798 @@
       <selection activeCell="E21" sqref="E21:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
     <col min="6" max="6" width="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="232" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="73">
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="234"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="73">
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="47">
         <v>2</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="75"/>
-    </row>
-    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="73">
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="52">
         <v>5</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="80" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="51" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="73">
+    <row r="6" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="87"/>
-    </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="73">
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="73">
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="88"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="73">
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90" t="s">
+      <c r="F9" s="217"/>
+      <c r="G9" s="235" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="73">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="F10" s="218"/>
+      <c r="G10" s="236"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="232" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="93" t="s">
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="234"/>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="87"/>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="95">
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="62">
         <v>9</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="46">
         <v>111111</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="95">
+      <c r="G13" s="58"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="62">
         <v>10</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="228" t="s">
         <v>238</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="221" t="s">
         <v>239</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="228" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="95">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="62">
         <v>11</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="98"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="95">
+      <c r="E15" s="229"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="229"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="62">
         <v>12</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="100"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="95">
+      <c r="E16" s="230"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="230"/>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="62">
         <v>13</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="225" t="s">
         <v>242</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="228" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="95">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="62">
         <v>14</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="98"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="95">
+      <c r="F18" s="226"/>
+      <c r="G18" s="229"/>
+    </row>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="62">
         <v>15</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="100"/>
-    </row>
-    <row r="20" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A20" s="95">
+      <c r="F19" s="227"/>
+      <c r="G19" s="230"/>
+    </row>
+    <row r="20" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="62">
         <v>16</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="95">
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="62">
         <v>17</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="228" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="228" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="G21" s="105" t="s">
+      <c r="G21" s="231" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="95">
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="62">
         <v>18</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="104" t="s">
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="98"/>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="95">
+      <c r="G22" s="229"/>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="62">
         <v>19</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="106" t="s">
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="98"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="95">
+      <c r="G23" s="229"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="62">
         <v>21</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="86" t="s">
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="G24" s="100"/>
-    </row>
-    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="95">
+      <c r="G24" s="230"/>
+    </row>
+    <row r="25" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="62">
         <v>22</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="F25" s="86" t="s">
+      <c r="F25" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="G25" s="80"/>
-    </row>
-    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="95">
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="62">
         <v>23</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="G26" s="80"/>
-    </row>
-    <row r="27" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="95">
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="62">
         <v>24</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="G27" s="80"/>
-    </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="95">
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A28" s="62">
         <v>25</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="G28" s="75"/>
-    </row>
-    <row r="29" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="95">
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="62">
         <v>26</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F29" s="86" t="s">
+      <c r="F29" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="G29" s="75"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="232" t="s">
         <v>274</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
-    </row>
-    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="93" t="s">
+      <c r="B30" s="233"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="234"/>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="94" t="s">
+      <c r="E31" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="87"/>
-    </row>
-    <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="107">
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A32" s="66">
         <v>27</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="75" t="s">
+      <c r="D32" s="66"/>
+      <c r="E32" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="G32" s="109"/>
-    </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="107">
+      <c r="G32" s="68"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="66">
         <v>28</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="75" t="s">
+      <c r="D33" s="66"/>
+      <c r="E33" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="110" t="s">
+      <c r="F33" s="217"/>
+      <c r="G33" s="219" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="107">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="66">
         <v>29</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="C34" s="108" t="s">
+      <c r="C34" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="107"/>
-      <c r="E34" s="75" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="111"/>
-    </row>
-    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="108" t="s">
+      <c r="F34" s="218"/>
+      <c r="G34" s="220"/>
+    </row>
+    <row r="35" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="66"/>
+      <c r="B35" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="D35" s="108">
+      <c r="D35" s="67">
         <v>5555555</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="112" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="G35" s="113"/>
-    </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="107">
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="66">
         <v>30</v>
       </c>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="D36" s="114">
+      <c r="D36" s="71">
         <v>39798</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="F36" s="97"/>
-      <c r="G36" s="110" t="s">
+      <c r="F36" s="221"/>
+      <c r="G36" s="219" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="107">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="66">
         <v>31</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="108">
+      <c r="D37" s="67">
         <v>492</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="F37" s="115"/>
-      <c r="G37" s="111"/>
-    </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="107">
+      <c r="F37" s="222"/>
+      <c r="G37" s="220"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="66">
         <v>32</v>
       </c>
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="C38" s="116" t="s">
+      <c r="C38" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="D38" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="118" t="s">
+      <c r="F38" s="217"/>
+      <c r="G38" s="224" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="107">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="66">
         <v>33</v>
       </c>
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="D39" s="117" t="s">
+      <c r="D39" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="E39" s="85" t="s">
+      <c r="E39" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="F39" s="120"/>
-      <c r="G39" s="118"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="107">
+      <c r="F39" s="223"/>
+      <c r="G39" s="224"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="66">
         <v>34</v>
       </c>
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="C40" s="116" t="s">
+      <c r="C40" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="117" t="s">
+      <c r="D40" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="118"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="107">
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="66">
         <v>35</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="E41" s="85" t="s">
+      <c r="E41" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="F41" s="91"/>
-      <c r="G41" s="118"/>
+      <c r="F41" s="218"/>
+      <c r="G41" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="G21:G24"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="F9:F10"/>
@@ -10895,6 +10960,17 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10908,690 +10984,690 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.6328125" customWidth="1"/>
+    <col min="7" max="7" width="37.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="239"/>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="57">
+      <c r="E3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="243">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="210" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="52" t="s">
+      <c r="E4" s="247"/>
+      <c r="F4" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="64"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="G4" s="212"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="244"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="213"/>
+    </row>
+    <row r="6" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="37">
         <v>6</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+    <row r="10" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
         <v>7</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+    <row r="11" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A11" s="37">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+    <row r="12" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="37">
         <v>9</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="B13" s="238"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="239"/>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="34">
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="29">
         <v>10</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="20">
         <v>111111</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="29">
         <v>11</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="199" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="29">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="F17" s="200"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="29">
         <v>13</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="34">
+      <c r="F18" s="201"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="29">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="215" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="34">
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="29">
         <v>15</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
+      <c r="F20" s="200"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="29">
         <v>16</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
+      <c r="F21" s="201"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="29">
         <v>17</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="34">
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="29">
         <v>18</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="34">
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="29">
         <v>19</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="34">
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="29">
         <v>20</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="20">
         <v>111111</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="34">
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="29">
         <v>21</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="24">
         <v>39814</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34">
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="29">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="237" t="s">
         <v>196</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="B28" s="238"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="239"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="21">
         <v>23</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="40">
         <v>3</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="49" t="s">
+      <c r="F29" s="23"/>
+      <c r="G29" s="240" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="21">
         <v>24</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="50"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
+      <c r="F30" s="23"/>
+      <c r="G30" s="241"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="21">
         <v>25</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="50"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="F31" s="23"/>
+      <c r="G31" s="241"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="21">
         <v>26</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="50"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
+      <c r="F32" s="23"/>
+      <c r="G32" s="241"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="21">
         <v>27</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="50"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="F33" s="23"/>
+      <c r="G33" s="241"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="21">
         <v>28</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="50"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="F34" s="23"/>
+      <c r="G34" s="241"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="21">
         <v>29</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="28" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="50"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
+      <c r="F35" s="23"/>
+      <c r="G35" s="241"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="21">
         <v>30</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="28" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="51"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11621,641 +11697,641 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.90625" customWidth="1"/>
+    <col min="4" max="4" width="54.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="105" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="111" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+    <row r="3" spans="1:4" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="138.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="155" t="s">
+    <row r="4" spans="1:4" ht="140.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="106" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="109">
         <v>45175</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="155" t="s">
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+      <c r="A7" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="106" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="155" t="s">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="206" t="s">
+      <c r="D8" s="256" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="155" t="s">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="207"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="155" t="s">
+      <c r="C9" s="254"/>
+      <c r="D9" s="257"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="208"/>
-    </row>
-    <row r="11" spans="1:4" ht="138.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="155" t="s">
+      <c r="C10" s="255"/>
+      <c r="D10" s="258"/>
+    </row>
+    <row r="11" spans="1:4" ht="140.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="152.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="155" t="s">
+    <row r="12" spans="1:4" ht="154.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="108" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="157" t="s">
+    <row r="13" spans="1:4" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="159" t="s">
+      <c r="D13" s="106" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="172" t="s">
+    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="119" t="s">
         <v>327</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="D14" s="175" t="s">
+      <c r="D14" s="122" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A15" s="172" t="s">
+    <row r="15" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174" t="s">
+      <c r="B15" s="120"/>
+      <c r="C15" s="121" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="172" t="s">
+      <c r="D15" s="119" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="209" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="259" t="s">
         <v>333</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173" t="s">
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="184" t="s">
+    <row r="17" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A17" s="260"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="131" t="s">
         <v>335</v>
       </c>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="123" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="175" t="s">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="172" t="s">
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="119" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="207.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="172" t="s">
+    <row r="19" spans="1:4" ht="210.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="119" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="121" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="176" t="s">
+      <c r="D19" s="123" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="177" t="s">
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="124" t="s">
         <v>342</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="124" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="185" t="s">
+    <row r="21" spans="1:4" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="132" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="187" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="134" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="191" t="s">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="138" t="s">
         <v>347</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="213" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="263" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="140" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="194" t="s">
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="173"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="195" t="s">
+      <c r="B23" s="120"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="142" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="196" t="s">
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="143" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="173"/>
-      <c r="C24" s="211" t="s">
+      <c r="B24" s="120"/>
+      <c r="C24" s="261" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="197" t="s">
+      <c r="D24" s="144" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="198" t="s">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="145" t="s">
         <v>350</v>
       </c>
-      <c r="B25" s="199"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="200" t="s">
+      <c r="B25" s="146"/>
+      <c r="C25" s="262"/>
+      <c r="D25" s="147" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="221.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="188" t="s">
+    <row r="26" spans="1:4" ht="224.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="135" t="s">
         <v>355</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190" t="s">
+      <c r="B26" s="136"/>
+      <c r="C26" s="137" t="s">
         <v>356</v>
       </c>
-      <c r="D26" s="203" t="s">
+      <c r="D26" s="150" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="172" t="s">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="215" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="249" t="s">
         <v>348</v>
       </c>
-      <c r="D27" s="175" t="s">
+      <c r="D27" s="122" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="175" t="s">
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="175" t="s">
+      <c r="B28" s="120"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="122" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="175" t="s">
+    <row r="29" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="122" t="s">
         <v>361</v>
       </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="216" t="s">
+      <c r="B29" s="120"/>
+      <c r="C29" s="251" t="s">
         <v>362</v>
       </c>
-      <c r="D29" s="173"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="175" t="s">
+      <c r="D29" s="120"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="122" t="s">
         <v>363</v>
       </c>
-      <c r="B30" s="173"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="173"/>
-    </row>
-    <row r="31" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A31" s="172" t="s">
+      <c r="B30" s="120"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="120"/>
+    </row>
+    <row r="31" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B31" s="173"/>
-      <c r="C31" s="178" t="s">
+      <c r="B31" s="120"/>
+      <c r="C31" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="D31" s="173"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="175" t="s">
+      <c r="D31" s="120"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="122" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-    </row>
-    <row r="33" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A33" s="175" t="s">
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+    </row>
+    <row r="33" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="122" t="s">
         <v>364</v>
       </c>
-      <c r="B33" s="173"/>
-      <c r="C33" s="178" t="s">
+      <c r="B33" s="120"/>
+      <c r="C33" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="173"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="175" t="s">
+      <c r="D33" s="120"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="122" t="s">
         <v>365</v>
       </c>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-    </row>
-    <row r="35" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="166" t="s">
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+    </row>
+    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A35" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="168" t="s">
+      <c r="B35" s="114"/>
+      <c r="C35" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="D35" s="166" t="s">
+      <c r="D35" s="113" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A36" s="166" t="s">
+    <row r="36" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A36" s="113" t="s">
         <v>369</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="166" t="s">
+      <c r="B36" s="114"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="113" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="166" t="s">
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="113" t="s">
         <v>371</v>
       </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="166" t="s">
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="113" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="166" t="s">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="166" t="s">
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="113" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="166" t="s">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="169" t="s">
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="116" t="s">
         <v>375</v>
       </c>
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-    </row>
-    <row r="41" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="170" t="s">
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+      <c r="A41" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="171" t="s">
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="118" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="166" t="s">
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A42" s="113" t="s">
         <v>377</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="166" t="s">
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="113" t="s">
         <v>378</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="166" t="s">
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="113" t="s">
         <v>379</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="166" t="s">
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+    </row>
+    <row r="45" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A45" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="166" t="s">
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="166" t="s">
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="113" t="s">
         <v>382</v>
       </c>
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="166" t="s">
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+    </row>
+    <row r="48" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A48" s="113" t="s">
         <v>383</v>
       </c>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="166" t="s">
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="113" t="s">
         <v>384</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="166" t="s">
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="113" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="166" t="s">
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+    </row>
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A51" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="166" t="s">
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="164" t="s">
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="111" t="s">
         <v>388</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="165" t="s">
+      <c r="B53" s="111"/>
+      <c r="C53" s="112" t="s">
         <v>389</v>
       </c>
-      <c r="D53" s="164"/>
-    </row>
-    <row r="54" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="179" t="s">
+      <c r="D53" s="111"/>
+    </row>
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="B54" s="180"/>
-      <c r="C54" s="181" t="s">
+      <c r="B54" s="127"/>
+      <c r="C54" s="128" t="s">
         <v>391</v>
       </c>
-      <c r="D54" s="182" t="s">
+      <c r="D54" s="129" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A55" s="182" t="s">
+    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="129" t="s">
         <v>393</v>
       </c>
-      <c r="B55" s="180"/>
-      <c r="C55" s="180" t="s">
+      <c r="B55" s="127"/>
+      <c r="C55" s="127" t="s">
         <v>394</v>
       </c>
-      <c r="D55" s="182" t="s">
+      <c r="D55" s="129" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A56" s="182" t="s">
+    <row r="56" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="129" t="s">
         <v>396</v>
       </c>
-      <c r="B56" s="180"/>
-      <c r="C56" s="181" t="s">
+      <c r="B56" s="127"/>
+      <c r="C56" s="128" t="s">
         <v>397</v>
       </c>
-      <c r="D56" s="182" t="s">
+      <c r="D56" s="129" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="159"/>
-      <c r="B57" s="159"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="154" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="106"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="183" t="s">
+      <c r="B58" s="130" t="s">
         <v>399</v>
       </c>
-      <c r="C58" s="183"/>
-      <c r="D58" s="154" t="s">
+      <c r="C58" s="130"/>
+      <c r="D58" s="101" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="154" t="s">
+    <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="B59" s="183" t="s">
+      <c r="B59" s="130" t="s">
         <v>401</v>
       </c>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="154" t="s">
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="183" t="s">
+      <c r="B60" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="183"/>
-      <c r="D60" s="183"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12279,365 +12355,365 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.6328125" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.453125" customWidth="1"/>
+    <col min="4" max="4" width="48.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="111" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+    <row r="3" spans="1:4" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-    </row>
-    <row r="5" spans="1:4" ht="138.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="123" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+    </row>
+    <row r="5" spans="1:4" ht="140.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="124" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="78" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="140">
+      <c r="D7" s="93">
         <v>45175</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+      <c r="A8" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="81" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="123" t="s">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="269" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="264" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="123" t="s">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="147"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="123" t="s">
+      <c r="C10" s="269"/>
+      <c r="D10" s="264"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="147"/>
-    </row>
-    <row r="12" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="123" t="s">
+      <c r="C11" s="269"/>
+      <c r="D11" s="264"/>
+    </row>
+    <row r="12" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="138.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+    <row r="13" spans="1:4" ht="140.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="79" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="129" t="s">
+    <row r="14" spans="1:4" ht="84.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="s">
+    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88" t="s">
         <v>314</v>
       </c>
-      <c r="D15" s="141" t="s">
+      <c r="D15" s="94" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A16" s="136" t="s">
+    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="95" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="136" t="s">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="148" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="265" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="95" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="141" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="94" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A19" s="136" t="s">
+    <row r="19" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="142" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="95" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="133" t="s">
+    <row r="20" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="135" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="95" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="136" t="s">
+    <row r="21" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="133" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-    </row>
-    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="133" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+    </row>
+    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="86" t="s">
         <v>321</v>
       </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="135" t="s">
+      <c r="B23" s="87"/>
+      <c r="C23" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="96" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135" t="s">
+    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="94" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="137" t="s">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="99" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="137" t="s">
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="146">
+      <c r="D26" s="99">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="137" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="146"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="137" t="s">
+      <c r="D27" s="99"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="151" t="s">
+      <c r="C28" s="268" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="146"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="130" t="s">
+      <c r="D28" s="99"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="146"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="137" t="s">
+      <c r="B29" s="267"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="99"/>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="144" t="s">
+      <c r="B30" s="91"/>
+      <c r="C30" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="99" t="s">
         <v>97</v>
       </c>
     </row>
